--- a/data/samarpan.xlsx
+++ b/data/samarpan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babai\Desktop\excelreader\excel_web_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3B0711-82D0-40A1-9408-9069DC672C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AF869D-1D19-40C1-8B0A-6595E1879EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26895" yWindow="1365" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t xml:space="preserve">                Smithy Service </t>
   </si>
@@ -253,18 +253,12 @@
     <t>Meena Kumari - Rosewood</t>
   </si>
   <si>
-    <t>AC repair</t>
-  </si>
-  <si>
     <t>Plumbing issue</t>
   </si>
   <si>
     <t>Light fixture repair</t>
   </si>
   <si>
-    <t>Water leakage</t>
-  </si>
-  <si>
     <t>Door handle replacement</t>
   </si>
   <si>
@@ -295,43 +289,40 @@
     <t>26-08-2031</t>
   </si>
   <si>
-    <t>mama</t>
-  </si>
-  <si>
-    <t>lala</t>
-  </si>
-  <si>
-    <t>sadf</t>
-  </si>
-  <si>
-    <t>chacha</t>
-  </si>
-  <si>
-    <t>nini</t>
-  </si>
-  <si>
-    <t>pupo</t>
-  </si>
-  <si>
-    <t>hula</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>220-0825</t>
-  </si>
-  <si>
-    <t>SAMARPAN JENA</t>
-  </si>
-  <si>
-    <t>BRAIN DAMAGE</t>
-  </si>
-  <si>
-    <t>SAM</t>
+    <t>AC repair important</t>
+  </si>
+  <si>
+    <t>shaym</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>naveen</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>sony</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>redmi</t>
+  </si>
+  <si>
+    <t>Water Leak impo</t>
   </si>
 </sst>
 </file>
@@ -614,12 +605,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -639,11 +624,17 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1150,17 +1141,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1181,7 +1172,7 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -1192,17 +1183,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="21">
       <c r="A4" s="4">
@@ -1221,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1230,7 @@
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1248,8 +1239,8 @@
       <c r="F5" s="8">
         <v>7873847293</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>74</v>
+      <c r="G5" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>21</v>
@@ -1271,14 +1262,14 @@
       <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>75</v>
+      <c r="G6" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>24</v>
@@ -1306,8 +1297,8 @@
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>75</v>
+      <c r="G7" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>24</v>
@@ -1329,14 +1320,14 @@
       <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>75</v>
+      <c r="G8" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>21</v>
@@ -1355,7 +1346,7 @@
       <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1364,8 +1355,8 @@
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>75</v>
+      <c r="G9" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>34</v>
@@ -1379,23 +1370,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>53</v>
+      <c r="E10" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>67</v>
+      <c r="G10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -1404,23 +1395,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>54</v>
+      <c r="E11" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>68</v>
+      <c r="G11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1429,23 +1420,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>55</v>
+      <c r="E12" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>69</v>
+      <c r="G12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -1454,23 +1445,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>56</v>
+      <c r="E13" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>70</v>
+      <c r="G13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -1479,23 +1470,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>57</v>
+      <c r="E14" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>71</v>
+      <c r="G14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -1504,23 +1495,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>58</v>
+      <c r="E15" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>72</v>
+      <c r="G15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -1529,23 +1520,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>73</v>
+      <c r="H16" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -1568,35 +1559,23 @@
       <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21">
-      <c r="A18" s="21">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="A18" s="19"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/data/samarpan.xlsx
+++ b/data/samarpan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babai\Desktop\excelreader\excel_web_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AF869D-1D19-40C1-8B0A-6595E1879EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB0B36C-C2FE-485B-B150-59BDFE6E434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26895" yWindow="1365" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t xml:space="preserve">                Smithy Service </t>
   </si>
@@ -139,13 +139,7 @@
     <t>Lock repair</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Naga </t>
-  </si>
-  <si>
-    <t>N.A</t>
   </si>
   <si>
     <t>215-0824</t>
@@ -1126,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1214,11 +1208,9 @@
       <c r="F4" s="8"/>
       <c r="G4" s="15"/>
       <c r="H4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="21">
       <c r="A5" s="4">
@@ -1228,26 +1220,24 @@
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="8">
         <v>7873847293</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="21">
       <c r="A6" s="4">
@@ -1257,26 +1247,24 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2384723984</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21">
       <c r="A7" s="4">
@@ -1286,26 +1274,22 @@
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="21">
       <c r="A8" s="4">
@@ -1315,26 +1299,22 @@
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="21">
       <c r="A9" s="4">
@@ -1344,49 +1324,45 @@
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="21">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -1395,23 +1371,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1420,23 +1396,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -1445,23 +1421,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -1470,23 +1446,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -1495,23 +1471,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -1520,23 +1496,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -1548,26 +1524,22 @@
         <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="21">
       <c r="A18" s="19"/>

--- a/data/samarpan.xlsx
+++ b/data/samarpan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babai\Desktop\excelreader\excel_web_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB0B36C-C2FE-485B-B150-59BDFE6E434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AC2C50-48E9-4C7E-86F0-37C36EE7546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t xml:space="preserve">                Smithy Service </t>
   </si>
@@ -262,18 +262,12 @@
     <t>Refrigerator repair</t>
   </si>
   <si>
-    <t>26-08-2025</t>
-  </si>
-  <si>
     <t>26-08-2026</t>
   </si>
   <si>
     <t>26-08-2027</t>
   </si>
   <si>
-    <t>26-08-2028</t>
-  </si>
-  <si>
     <t>26-08-2029</t>
   </si>
   <si>
@@ -317,6 +311,18 @@
   </si>
   <si>
     <t>Water Leak impo</t>
+  </si>
+  <si>
+    <t>26-09-2024</t>
+  </si>
+  <si>
+    <t>26-10-2025</t>
+  </si>
+  <si>
+    <t>26-10-2028</t>
+  </si>
+  <si>
+    <t>15-06-2024</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1194,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -1217,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
@@ -1232,7 +1238,7 @@
         <v>7873847293</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>19</v>
@@ -1244,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
@@ -1259,7 +1265,7 @@
         <v>2384723984</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>22</v>
@@ -1271,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
@@ -1284,7 +1290,7 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>22</v>
@@ -1309,7 +1315,7 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>19</v>
@@ -1321,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
@@ -1334,7 +1340,7 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>32</v>
@@ -1346,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>40</v>
@@ -1355,14 +1361,14 @@
         <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -1371,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>41</v>
@@ -1384,10 +1390,10 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1396,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>38</v>
@@ -1409,10 +1415,10 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -1421,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>42</v>
@@ -1430,14 +1436,14 @@
         <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -1446,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>43</v>
@@ -1459,10 +1465,10 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -1471,7 +1477,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>37</v>
@@ -1484,10 +1490,10 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -1496,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>39</v>
@@ -1509,10 +1515,10 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -1534,10 +1540,10 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17" s="6"/>
     </row>

--- a/data/samarpan.xlsx
+++ b/data/samarpan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babai\Desktop\excelreader\excel_web_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AC2C50-48E9-4C7E-86F0-37C36EE7546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DCD3F-8A3E-40FA-A2C4-E827F2E0B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
